--- a/database/industries/urea/khorasan/product/quarterly_seprated.xlsx
+++ b/database/industries/urea/khorasan/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\urea\khorasan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370A9B02-22CE-41A7-98F1-B393DBA1F11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D44F0A-1F6F-4267-AD2C-92BFA0A9E81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -660,16 +675,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I125"/>
+  <dimension ref="B1:N125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -678,8 +693,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -690,8 +710,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -702,8 +727,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -712,8 +742,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -724,8 +759,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -736,8 +776,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -746,8 +791,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -768,8 +818,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -778,10 +843,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -790,248 +860,403 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>43610</v>
+      </c>
+      <c r="F11" s="11">
+        <v>54662</v>
+      </c>
+      <c r="G11" s="11">
+        <v>41092</v>
+      </c>
+      <c r="H11" s="11">
+        <v>65959</v>
+      </c>
+      <c r="I11" s="11">
+        <v>48086</v>
+      </c>
+      <c r="J11" s="11">
         <v>164006</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>-164006</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>48841</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>-48841</v>
       </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>2175</v>
+      </c>
+      <c r="F12" s="13">
+        <v>5462</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1556</v>
+      </c>
+      <c r="H12" s="13">
+        <v>5355</v>
+      </c>
+      <c r="I12" s="13">
+        <v>3945</v>
+      </c>
+      <c r="J12" s="13">
         <v>5554</v>
       </c>
-      <c r="F12" s="13">
+      <c r="K12" s="13">
         <v>6261</v>
       </c>
-      <c r="G12" s="13">
+      <c r="L12" s="13">
         <v>3243</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>2417</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>3933</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="11">
+        <v>20</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="11">
         <v>13118</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>1759</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>4005</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>5902</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>3717</v>
+      </c>
+      <c r="F14" s="13">
+        <v>3453</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2855</v>
+      </c>
+      <c r="H14" s="13">
+        <v>3101</v>
+      </c>
+      <c r="I14" s="13">
+        <v>6237</v>
+      </c>
+      <c r="J14" s="13">
         <v>9786</v>
       </c>
-      <c r="F14" s="13">
+      <c r="K14" s="13">
         <v>-9786</v>
       </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="11">
+        <v>20</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="11">
         <v>12693</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>3632</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>4441</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>4062</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="11">
+        <v>20</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="11">
         <v>186775</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="L19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="11">
         <v>34924</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
+        <v>49502</v>
+      </c>
+      <c r="F20" s="15">
+        <v>63577</v>
+      </c>
+      <c r="G20" s="15">
+        <v>45503</v>
+      </c>
+      <c r="H20" s="15">
+        <v>74415</v>
+      </c>
+      <c r="I20" s="15">
+        <v>58268</v>
+      </c>
+      <c r="J20" s="15">
         <v>179346</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>45055</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>57475</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>-37978</v>
       </c>
-      <c r="I20" s="15">
+      <c r="N20" s="15">
         <v>48821</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1040,104 +1265,169 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
+        <v>47771</v>
+      </c>
+      <c r="F22" s="11">
+        <v>89291</v>
+      </c>
+      <c r="G22" s="11">
+        <v>70320</v>
+      </c>
+      <c r="H22" s="11">
+        <v>51480</v>
+      </c>
+      <c r="I22" s="11">
+        <v>91301</v>
+      </c>
+      <c r="J22" s="11">
         <v>78563</v>
       </c>
-      <c r="F22" s="11">
+      <c r="K22" s="11">
         <v>35579</v>
       </c>
-      <c r="G22" s="11">
+      <c r="L22" s="11">
         <v>64368</v>
       </c>
-      <c r="H22" s="11">
+      <c r="M22" s="11">
         <v>143351</v>
       </c>
-      <c r="I22" s="11">
+      <c r="N22" s="11">
         <v>72503</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>139</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1823</v>
+      </c>
+      <c r="G23" s="13">
+        <v>507</v>
+      </c>
+      <c r="H23" s="13">
+        <v>661</v>
+      </c>
+      <c r="I23" s="13">
+        <v>158</v>
+      </c>
+      <c r="J23" s="13">
         <v>2320</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>1673</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>2990</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>6723</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>5883</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
+        <v>772</v>
+      </c>
+      <c r="F24" s="11">
+        <v>2280</v>
+      </c>
+      <c r="G24" s="11">
+        <v>792</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1706</v>
+      </c>
+      <c r="I24" s="11">
+        <v>2748</v>
+      </c>
+      <c r="J24" s="11">
         <v>1417</v>
       </c>
-      <c r="F24" s="11">
+      <c r="K24" s="11">
         <v>700</v>
       </c>
-      <c r="G24" s="11">
+      <c r="L24" s="11">
         <v>1312</v>
       </c>
-      <c r="H24" s="11">
+      <c r="M24" s="11">
         <v>598</v>
       </c>
-      <c r="I24" s="11">
+      <c r="N24" s="11">
         <v>1084</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
+        <v>48682</v>
+      </c>
+      <c r="F25" s="15">
+        <v>93394</v>
+      </c>
+      <c r="G25" s="15">
+        <v>71619</v>
+      </c>
+      <c r="H25" s="15">
+        <v>53847</v>
+      </c>
+      <c r="I25" s="15">
+        <v>94207</v>
+      </c>
+      <c r="J25" s="15">
         <v>82300</v>
       </c>
-      <c r="F25" s="15">
+      <c r="K25" s="15">
         <v>37952</v>
       </c>
-      <c r="G25" s="15">
+      <c r="L25" s="15">
         <v>68670</v>
       </c>
-      <c r="H25" s="15">
+      <c r="M25" s="15">
         <v>150672</v>
       </c>
-      <c r="I25" s="15">
+      <c r="N25" s="15">
         <v>79470</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -1146,10 +1436,15 @@
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
@@ -1168,34 +1463,64 @@
       <c r="I27" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="19">
+        <v>0</v>
+      </c>
+      <c r="K27" s="19">
+        <v>0</v>
+      </c>
+      <c r="L27" s="19">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19">
+        <v>0</v>
+      </c>
+      <c r="N27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>15</v>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <v>0</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19"/>
@@ -1214,30 +1539,60 @@
       <c r="I29" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="19">
+        <v>0</v>
+      </c>
+      <c r="K29" s="19">
+        <v>0</v>
+      </c>
+      <c r="L29" s="19">
+        <v>0</v>
+      </c>
+      <c r="M29" s="19">
+        <v>0</v>
+      </c>
+      <c r="N29" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
+        <v>98184</v>
+      </c>
+      <c r="F30" s="15">
+        <v>156971</v>
+      </c>
+      <c r="G30" s="15">
+        <v>117122</v>
+      </c>
+      <c r="H30" s="15">
+        <v>128262</v>
+      </c>
+      <c r="I30" s="15">
+        <v>152475</v>
+      </c>
+      <c r="J30" s="15">
         <v>261646</v>
       </c>
-      <c r="F30" s="15">
+      <c r="K30" s="15">
         <v>83007</v>
       </c>
-      <c r="G30" s="15">
+      <c r="L30" s="15">
         <v>126145</v>
       </c>
-      <c r="H30" s="15">
+      <c r="M30" s="15">
         <v>112694</v>
       </c>
-      <c r="I30" s="15">
+      <c r="N30" s="15">
         <v>128291</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1246,8 +1601,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1256,8 +1616,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1266,10 +1631,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1288,8 +1658,23 @@
       <c r="I34" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1298,10 +1683,15 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -1310,248 +1700,403 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
+        <v>1112725</v>
+      </c>
+      <c r="F37" s="11">
+        <v>2053105</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1751529</v>
+      </c>
+      <c r="H37" s="11">
+        <v>2960470</v>
+      </c>
+      <c r="I37" s="11">
+        <v>2413247</v>
+      </c>
+      <c r="J37" s="11">
         <v>10276124</v>
       </c>
-      <c r="F37" s="11">
+      <c r="K37" s="11">
         <v>-10276124</v>
       </c>
-      <c r="G37" s="11">
+      <c r="L37" s="11">
         <v>5697253</v>
       </c>
-      <c r="H37" s="11">
+      <c r="M37" s="11">
         <v>-5697253</v>
       </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
+        <v>52308</v>
+      </c>
+      <c r="F38" s="13">
+        <v>157979</v>
+      </c>
+      <c r="G38" s="13">
+        <v>55759</v>
+      </c>
+      <c r="H38" s="13">
+        <v>252384</v>
+      </c>
+      <c r="I38" s="13">
+        <v>268246</v>
+      </c>
+      <c r="J38" s="13">
         <v>558963</v>
       </c>
-      <c r="F38" s="13">
+      <c r="K38" s="13">
         <v>872704</v>
       </c>
-      <c r="G38" s="13">
+      <c r="L38" s="13">
         <v>510733</v>
       </c>
-      <c r="H38" s="13">
+      <c r="M38" s="13">
         <v>486980</v>
       </c>
-      <c r="I38" s="13">
+      <c r="N38" s="13">
         <v>811374</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="11">
+        <v>20</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="11">
         <v>1244920</v>
       </c>
-      <c r="G39" s="11">
+      <c r="L39" s="11">
         <v>266443</v>
       </c>
-      <c r="H39" s="11">
+      <c r="M39" s="11">
         <v>492936</v>
       </c>
-      <c r="I39" s="11">
+      <c r="N39" s="11">
         <v>766225</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
+        <v>676509</v>
+      </c>
+      <c r="F40" s="13">
+        <v>841760</v>
+      </c>
+      <c r="G40" s="13">
+        <v>913145</v>
+      </c>
+      <c r="H40" s="13">
+        <v>1108335</v>
+      </c>
+      <c r="I40" s="13">
+        <v>2496051</v>
+      </c>
+      <c r="J40" s="13">
         <v>5384605</v>
       </c>
-      <c r="F40" s="13">
+      <c r="K40" s="13">
         <v>-5384605</v>
       </c>
-      <c r="G40" s="13">
-        <v>0</v>
-      </c>
-      <c r="H40" s="13">
-        <v>0</v>
-      </c>
-      <c r="I40" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="13">
+        <v>0</v>
+      </c>
+      <c r="N40" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="11">
+        <v>20</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="11">
         <v>7362151</v>
       </c>
-      <c r="G41" s="11">
+      <c r="L41" s="11">
         <v>2061880</v>
       </c>
-      <c r="H41" s="11">
+      <c r="M41" s="11">
         <v>2053536</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>1667832</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="13">
-        <v>0</v>
-      </c>
-      <c r="G42" s="13">
-        <v>0</v>
-      </c>
-      <c r="H42" s="13">
-        <v>0</v>
-      </c>
-      <c r="I42" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="13">
+        <v>0</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0</v>
+      </c>
+      <c r="M42" s="13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="11">
-        <v>0</v>
-      </c>
-      <c r="G43" s="11">
-        <v>0</v>
-      </c>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="13">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13">
-        <v>0</v>
-      </c>
-      <c r="H44" s="13">
-        <v>0</v>
-      </c>
-      <c r="I44" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="13">
+        <v>0</v>
+      </c>
+      <c r="L44" s="13">
+        <v>0</v>
+      </c>
+      <c r="M44" s="13">
+        <v>0</v>
+      </c>
+      <c r="N44" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="11">
+        <v>20</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="11">
         <v>12348052</v>
       </c>
-      <c r="G45" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="11">
+      <c r="L45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N45" s="11">
         <v>3792959</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15">
+        <v>1841542</v>
+      </c>
+      <c r="F46" s="15">
+        <v>3052844</v>
+      </c>
+      <c r="G46" s="15">
+        <v>2720433</v>
+      </c>
+      <c r="H46" s="15">
+        <v>4321189</v>
+      </c>
+      <c r="I46" s="15">
+        <v>5177544</v>
+      </c>
+      <c r="J46" s="15">
         <v>16219692</v>
       </c>
-      <c r="F46" s="15">
+      <c r="K46" s="15">
         <v>6167098</v>
       </c>
-      <c r="G46" s="15">
+      <c r="L46" s="15">
         <v>8536309</v>
       </c>
-      <c r="H46" s="15">
+      <c r="M46" s="15">
         <v>-2663801</v>
       </c>
-      <c r="I46" s="15">
+      <c r="N46" s="15">
         <v>7038390</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -1560,104 +2105,169 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>1725293</v>
+      </c>
+      <c r="F48" s="11">
+        <v>4604846</v>
+      </c>
+      <c r="G48" s="11">
+        <v>3847254</v>
+      </c>
+      <c r="H48" s="11">
+        <v>3298246</v>
+      </c>
+      <c r="I48" s="11">
+        <v>6929991</v>
+      </c>
+      <c r="J48" s="11">
         <v>10133778</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>4877915</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>9651908</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>19480697</v>
       </c>
-      <c r="I48" s="11">
+      <c r="N48" s="11">
         <v>11186895</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>3360</v>
+      </c>
+      <c r="F49" s="13">
+        <v>51559</v>
+      </c>
+      <c r="G49" s="13">
+        <v>16484</v>
+      </c>
+      <c r="H49" s="13">
+        <v>29583</v>
+      </c>
+      <c r="I49" s="13">
+        <v>8868</v>
+      </c>
+      <c r="J49" s="13">
         <v>216440</v>
       </c>
-      <c r="F49" s="13">
+      <c r="K49" s="13">
         <v>246702</v>
       </c>
-      <c r="G49" s="13">
+      <c r="L49" s="13">
         <v>528271</v>
       </c>
-      <c r="H49" s="13">
+      <c r="M49" s="13">
         <v>1267604</v>
       </c>
-      <c r="I49" s="13">
+      <c r="N49" s="13">
         <v>1182553</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
+        <v>110289</v>
+      </c>
+      <c r="F50" s="11">
+        <v>439770</v>
+      </c>
+      <c r="G50" s="11">
+        <v>232414</v>
+      </c>
+      <c r="H50" s="11">
+        <v>747136</v>
+      </c>
+      <c r="I50" s="11">
+        <v>1534347</v>
+      </c>
+      <c r="J50" s="11">
         <v>1275798</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>536789</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>816836</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>263567</v>
       </c>
-      <c r="I50" s="11">
+      <c r="N50" s="11">
         <v>445655</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
+        <v>1838942</v>
+      </c>
+      <c r="F51" s="15">
+        <v>5096175</v>
+      </c>
+      <c r="G51" s="15">
+        <v>4096152</v>
+      </c>
+      <c r="H51" s="15">
+        <v>4074965</v>
+      </c>
+      <c r="I51" s="15">
+        <v>8473206</v>
+      </c>
+      <c r="J51" s="15">
         <v>11626016</v>
       </c>
-      <c r="F51" s="15">
+      <c r="K51" s="15">
         <v>5661406</v>
       </c>
-      <c r="G51" s="15">
+      <c r="L51" s="15">
         <v>10997015</v>
       </c>
-      <c r="H51" s="15">
+      <c r="M51" s="15">
         <v>21011868</v>
       </c>
-      <c r="I51" s="15">
+      <c r="N51" s="15">
         <v>12815103</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
@@ -1666,10 +2276,15 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C53" s="19"/>
       <c r="D53" s="19"/>
@@ -1688,78 +2303,138 @@
       <c r="I53" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="19">
+        <v>0</v>
+      </c>
+      <c r="K53" s="19">
+        <v>0</v>
+      </c>
+      <c r="L53" s="19">
+        <v>0</v>
+      </c>
+      <c r="M53" s="19">
+        <v>0</v>
+      </c>
+      <c r="N53" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D54" s="15"/>
-      <c r="E54" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>15</v>
+      <c r="E54" s="15">
+        <v>0</v>
+      </c>
+      <c r="F54" s="15">
+        <v>0</v>
+      </c>
+      <c r="G54" s="15">
+        <v>0</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19">
-        <v>0</v>
+        <v>-1239</v>
       </c>
       <c r="F55" s="19">
-        <v>0</v>
+        <v>-5809</v>
       </c>
       <c r="G55" s="19">
-        <v>0</v>
+        <v>-7130</v>
       </c>
       <c r="H55" s="19">
-        <v>0</v>
+        <v>-9314</v>
       </c>
       <c r="I55" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="19">
+        <v>0</v>
+      </c>
+      <c r="K55" s="19">
+        <v>0</v>
+      </c>
+      <c r="L55" s="19">
+        <v>0</v>
+      </c>
+      <c r="M55" s="19">
+        <v>0</v>
+      </c>
+      <c r="N55" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
+        <v>3679245</v>
+      </c>
+      <c r="F56" s="15">
+        <v>8143210</v>
+      </c>
+      <c r="G56" s="15">
+        <v>6809455</v>
+      </c>
+      <c r="H56" s="15">
+        <v>8386840</v>
+      </c>
+      <c r="I56" s="15">
+        <v>13650750</v>
+      </c>
+      <c r="J56" s="15">
         <v>27845708</v>
       </c>
-      <c r="F56" s="15">
+      <c r="K56" s="15">
         <v>11828504</v>
       </c>
-      <c r="G56" s="15">
+      <c r="L56" s="15">
         <v>19533324</v>
       </c>
-      <c r="H56" s="15">
+      <c r="M56" s="15">
         <v>18348067</v>
       </c>
-      <c r="I56" s="15">
+      <c r="N56" s="15">
         <v>19853493</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1768,8 +2443,13 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1778,8 +2458,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1788,10 +2473,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1810,8 +2500,23 @@
       <c r="I60" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1820,10 +2525,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -1832,226 +2542,366 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
+        <v>25515363</v>
+      </c>
+      <c r="F63" s="11">
+        <v>37560005</v>
+      </c>
+      <c r="G63" s="11">
+        <v>42624574</v>
+      </c>
+      <c r="H63" s="11">
+        <v>44883488</v>
+      </c>
+      <c r="I63" s="11">
+        <v>50186062</v>
+      </c>
+      <c r="J63" s="11">
         <v>90239969</v>
       </c>
-      <c r="F63" s="11">
+      <c r="K63" s="11">
         <v>62657000</v>
       </c>
-      <c r="G63" s="11">
+      <c r="L63" s="11">
         <v>116648983</v>
       </c>
-      <c r="H63" s="11">
+      <c r="M63" s="11">
         <v>116648983</v>
       </c>
-      <c r="I63" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N63" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
+        <v>24049655</v>
+      </c>
+      <c r="F64" s="13">
+        <v>28696448</v>
+      </c>
+      <c r="G64" s="13">
+        <v>32101542</v>
+      </c>
+      <c r="H64" s="13">
+        <v>47130532</v>
+      </c>
+      <c r="I64" s="13">
+        <v>67996451</v>
+      </c>
+      <c r="J64" s="13">
         <v>100641520</v>
       </c>
-      <c r="F64" s="13">
+      <c r="K64" s="13">
         <v>139387318</v>
       </c>
-      <c r="G64" s="13">
+      <c r="L64" s="13">
         <v>157487820</v>
       </c>
-      <c r="H64" s="13">
+      <c r="M64" s="13">
         <v>201481175</v>
       </c>
-      <c r="I64" s="13">
+      <c r="N64" s="13">
         <v>206299008</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="11">
+        <v>20</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K65" s="11">
         <v>94901662</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>151474133</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>123080150</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>129824636</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
+        <v>182004036</v>
+      </c>
+      <c r="F66" s="13">
+        <v>243776426</v>
+      </c>
+      <c r="G66" s="13">
+        <v>319840630</v>
+      </c>
+      <c r="H66" s="13">
+        <v>357412125</v>
+      </c>
+      <c r="I66" s="13">
+        <v>400200577</v>
+      </c>
+      <c r="J66" s="13">
         <v>550235541</v>
       </c>
-      <c r="F66" s="13">
+      <c r="K66" s="13">
         <v>550235541</v>
       </c>
-      <c r="G66" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L66" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="11">
+        <v>20</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K67" s="11">
         <v>580016623</v>
       </c>
-      <c r="G67" s="11">
+      <c r="L67" s="11">
         <v>567698238</v>
       </c>
-      <c r="H67" s="11">
+      <c r="M67" s="11">
         <v>462403963</v>
       </c>
-      <c r="I67" s="11">
+      <c r="N67" s="11">
         <v>410593796</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="11">
+        <v>20</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K71" s="11">
         <v>66111910</v>
       </c>
-      <c r="G71" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" s="11">
+      <c r="L71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N71" s="11">
         <v>108606088</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -2060,80 +2910,130 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
+        <v>36115907</v>
+      </c>
+      <c r="F73" s="11">
+        <v>51571222</v>
+      </c>
+      <c r="G73" s="11">
+        <v>54710666</v>
+      </c>
+      <c r="H73" s="11">
+        <v>64068493</v>
+      </c>
+      <c r="I73" s="11">
+        <v>75902685</v>
+      </c>
+      <c r="J73" s="11">
         <v>128989193</v>
       </c>
-      <c r="F73" s="11">
+      <c r="K73" s="11">
         <v>137100958</v>
       </c>
-      <c r="G73" s="11">
+      <c r="L73" s="11">
         <v>149948857</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>135895090</v>
       </c>
-      <c r="I73" s="11">
+      <c r="N73" s="11">
         <v>154295615</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
+        <v>24172662</v>
+      </c>
+      <c r="F74" s="13">
+        <v>28282501</v>
+      </c>
+      <c r="G74" s="13">
+        <v>32512821</v>
+      </c>
+      <c r="H74" s="13">
+        <v>44754917</v>
+      </c>
+      <c r="I74" s="13">
+        <v>56126582</v>
+      </c>
+      <c r="J74" s="13">
         <v>93293103</v>
       </c>
-      <c r="F74" s="13">
+      <c r="K74" s="13">
         <v>147460849</v>
       </c>
-      <c r="G74" s="13">
+      <c r="L74" s="13">
         <v>176679264</v>
       </c>
-      <c r="H74" s="13">
+      <c r="M74" s="13">
         <v>188547375</v>
       </c>
-      <c r="I74" s="13">
+      <c r="N74" s="13">
         <v>201011899</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>142861399</v>
+      </c>
+      <c r="F75" s="11">
+        <v>192881579</v>
+      </c>
+      <c r="G75" s="11">
+        <v>293452020</v>
+      </c>
+      <c r="H75" s="11">
+        <v>437946073</v>
+      </c>
+      <c r="I75" s="11">
+        <v>558350437</v>
+      </c>
+      <c r="J75" s="11">
         <v>900351447</v>
       </c>
-      <c r="F75" s="11">
+      <c r="K75" s="11">
         <v>766841429</v>
       </c>
-      <c r="G75" s="11">
+      <c r="L75" s="11">
         <v>622588415</v>
       </c>
-      <c r="H75" s="11">
+      <c r="M75" s="11">
         <v>440747492</v>
       </c>
-      <c r="I75" s="11">
+      <c r="N75" s="11">
         <v>411120849</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2142,8 +3042,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2152,8 +3057,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2162,10 +3072,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2184,8 +3099,23 @@
       <c r="I79" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2194,10 +3124,15 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -2206,248 +3141,403 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
+        <v>-413613</v>
+      </c>
+      <c r="F82" s="11">
+        <v>-794380</v>
+      </c>
+      <c r="G82" s="11">
+        <v>-771344</v>
+      </c>
+      <c r="H82" s="11">
+        <v>-1057898</v>
+      </c>
+      <c r="I82" s="11">
+        <v>-1008852</v>
+      </c>
+      <c r="J82" s="11">
         <v>-1890030</v>
       </c>
-      <c r="F82" s="11">
+      <c r="K82" s="11">
         <v>3956780</v>
       </c>
-      <c r="G82" s="11">
+      <c r="L82" s="11">
         <v>-1693318</v>
       </c>
-      <c r="H82" s="11">
+      <c r="M82" s="11">
         <v>1693318</v>
       </c>
-      <c r="I82" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N82" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
+        <v>-24147</v>
+      </c>
+      <c r="F83" s="13">
+        <v>-91639</v>
+      </c>
+      <c r="G83" s="13">
+        <v>-49845</v>
+      </c>
+      <c r="H83" s="13">
+        <v>-116796</v>
+      </c>
+      <c r="I83" s="13">
+        <v>-137632</v>
+      </c>
+      <c r="J83" s="13">
         <v>-293046</v>
       </c>
-      <c r="F83" s="13">
+      <c r="K83" s="13">
         <v>-469215</v>
       </c>
-      <c r="G83" s="13">
+      <c r="L83" s="13">
         <v>-171374</v>
       </c>
-      <c r="H83" s="13">
+      <c r="M83" s="13">
         <v>-128516</v>
       </c>
-      <c r="I83" s="13">
+      <c r="N83" s="13">
         <v>-208916</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="11">
+        <v>20</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" s="11">
         <v>-389473</v>
       </c>
-      <c r="G84" s="11">
+      <c r="L84" s="11">
         <v>-60985</v>
       </c>
-      <c r="H84" s="11">
+      <c r="M84" s="11">
         <v>-135535</v>
       </c>
-      <c r="I84" s="11">
+      <c r="N84" s="11">
         <v>-204983</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
+        <v>-164399</v>
+      </c>
+      <c r="F85" s="13">
+        <v>-216810</v>
+      </c>
+      <c r="G85" s="13">
+        <v>-235736</v>
+      </c>
+      <c r="H85" s="13">
+        <v>-218193</v>
+      </c>
+      <c r="I85" s="13">
+        <v>-292419</v>
+      </c>
+      <c r="J85" s="13">
         <v>-474824</v>
       </c>
-      <c r="F85" s="13">
+      <c r="K85" s="13">
         <v>985436</v>
       </c>
-      <c r="G85" s="13">
-        <v>0</v>
-      </c>
-      <c r="H85" s="13">
-        <v>0</v>
-      </c>
-      <c r="I85" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L85" s="13">
+        <v>0</v>
+      </c>
+      <c r="M85" s="13">
+        <v>0</v>
+      </c>
+      <c r="N85" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F86" s="11">
+        <v>20</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="11">
         <v>-2028431</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>-538062</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>-941104</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>-848452</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" s="13">
-        <v>0</v>
-      </c>
-      <c r="G87" s="13">
-        <v>0</v>
-      </c>
-      <c r="H87" s="13">
-        <v>0</v>
-      </c>
-      <c r="I87" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K87" s="13">
+        <v>0</v>
+      </c>
+      <c r="L87" s="13">
+        <v>0</v>
+      </c>
+      <c r="M87" s="13">
+        <v>0</v>
+      </c>
+      <c r="N87" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" s="11">
-        <v>0</v>
-      </c>
-      <c r="G88" s="11">
-        <v>0</v>
-      </c>
-      <c r="H88" s="11">
-        <v>0</v>
-      </c>
-      <c r="I88" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="11">
+        <v>0</v>
+      </c>
+      <c r="L88" s="11">
+        <v>0</v>
+      </c>
+      <c r="M88" s="11">
+        <v>0</v>
+      </c>
+      <c r="N88" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="13">
-        <v>0</v>
-      </c>
-      <c r="G89" s="13">
-        <v>0</v>
-      </c>
-      <c r="H89" s="13">
-        <v>0</v>
-      </c>
-      <c r="I89" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J89" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="13">
+        <v>0</v>
+      </c>
+      <c r="L89" s="13">
+        <v>0</v>
+      </c>
+      <c r="M89" s="13">
+        <v>0</v>
+      </c>
+      <c r="N89" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="11">
+        <v>20</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K90" s="11">
         <v>-5545350</v>
       </c>
-      <c r="G90" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I90" s="11">
+      <c r="L90" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M90" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N90" s="11">
         <v>-1226380</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15">
+        <v>-602159</v>
+      </c>
+      <c r="F91" s="15">
+        <v>-1102829</v>
+      </c>
+      <c r="G91" s="15">
+        <v>-1056925</v>
+      </c>
+      <c r="H91" s="15">
+        <v>-1392887</v>
+      </c>
+      <c r="I91" s="15">
+        <v>-1438903</v>
+      </c>
+      <c r="J91" s="15">
         <v>-2657900</v>
       </c>
-      <c r="F91" s="15">
+      <c r="K91" s="15">
         <v>-3490253</v>
       </c>
-      <c r="G91" s="15">
+      <c r="L91" s="15">
         <v>-2463739</v>
       </c>
-      <c r="H91" s="15">
+      <c r="M91" s="15">
         <v>488163</v>
       </c>
-      <c r="I91" s="15">
+      <c r="N91" s="15">
         <v>-2488731</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -2456,104 +3546,169 @@
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
+        <v>-456791</v>
+      </c>
+      <c r="F93" s="11">
+        <v>-1199420</v>
+      </c>
+      <c r="G93" s="11">
+        <v>-1588611</v>
+      </c>
+      <c r="H93" s="11">
+        <v>-969376</v>
+      </c>
+      <c r="I93" s="11">
+        <v>-2249289</v>
+      </c>
+      <c r="J93" s="11">
         <v>-2945790</v>
       </c>
-      <c r="F93" s="11">
+      <c r="K93" s="11">
         <v>-2420123</v>
       </c>
-      <c r="G93" s="11">
+      <c r="L93" s="11">
         <v>-2334667</v>
       </c>
-      <c r="H93" s="11">
+      <c r="M93" s="11">
         <v>-5388258</v>
       </c>
-      <c r="I93" s="11">
+      <c r="N93" s="11">
         <v>-2972977</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
+        <v>-1543</v>
+      </c>
+      <c r="F94" s="13">
+        <v>-28209</v>
+      </c>
+      <c r="G94" s="13">
+        <v>-14733</v>
+      </c>
+      <c r="H94" s="13">
+        <v>-14421</v>
+      </c>
+      <c r="I94" s="13">
+        <v>-7995</v>
+      </c>
+      <c r="J94" s="13">
         <v>-93276</v>
       </c>
-      <c r="F94" s="13">
+      <c r="K94" s="13">
         <v>-115987</v>
       </c>
-      <c r="G94" s="13">
+      <c r="L94" s="13">
         <v>-157983</v>
       </c>
-      <c r="H94" s="13">
+      <c r="M94" s="13">
         <v>-356555</v>
       </c>
-      <c r="I94" s="13">
+      <c r="N94" s="13">
         <v>-312701</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
+        <v>-33906</v>
+      </c>
+      <c r="F95" s="11">
+        <v>-121053</v>
+      </c>
+      <c r="G95" s="11">
+        <v>-81561</v>
+      </c>
+      <c r="H95" s="11">
+        <v>-125604</v>
+      </c>
+      <c r="I95" s="11">
+        <v>-247277</v>
+      </c>
+      <c r="J95" s="11">
         <v>-229484</v>
       </c>
-      <c r="F95" s="11">
+      <c r="K95" s="11">
         <v>-468360</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>-195003</v>
       </c>
-      <c r="H95" s="11">
+      <c r="M95" s="11">
         <v>-155551</v>
       </c>
-      <c r="I95" s="11">
+      <c r="N95" s="11">
         <v>-229632</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
+        <v>-492240</v>
+      </c>
+      <c r="F96" s="15">
+        <v>-1348682</v>
+      </c>
+      <c r="G96" s="15">
+        <v>-1684905</v>
+      </c>
+      <c r="H96" s="15">
+        <v>-1109401</v>
+      </c>
+      <c r="I96" s="15">
+        <v>-2504561</v>
+      </c>
+      <c r="J96" s="15">
         <v>-3268550</v>
       </c>
-      <c r="F96" s="15">
+      <c r="K96" s="15">
         <v>-3004470</v>
       </c>
-      <c r="G96" s="15">
+      <c r="L96" s="15">
         <v>-2687653</v>
       </c>
-      <c r="H96" s="15">
+      <c r="M96" s="15">
         <v>-5900364</v>
       </c>
-      <c r="I96" s="15">
+      <c r="N96" s="15">
         <v>-3515310</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C97" s="17"/>
       <c r="D97" s="17"/>
@@ -2562,10 +3717,15 @@
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C98" s="19"/>
       <c r="D98" s="19"/>
@@ -2584,37 +3744,67 @@
       <c r="I98" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="19">
+        <v>0</v>
+      </c>
+      <c r="K98" s="19">
+        <v>0</v>
+      </c>
+      <c r="L98" s="19">
+        <v>0</v>
+      </c>
+      <c r="M98" s="19">
+        <v>0</v>
+      </c>
+      <c r="N98" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D99" s="15"/>
-      <c r="E99" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>15</v>
+      <c r="E99" s="15">
+        <v>0</v>
+      </c>
+      <c r="F99" s="15">
+        <v>0</v>
+      </c>
+      <c r="G99" s="15">
+        <v>0</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I99" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N99" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D100" s="19"/>
       <c r="E100" s="19">
@@ -2632,30 +3822,60 @@
       <c r="I100" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="19">
+        <v>0</v>
+      </c>
+      <c r="K100" s="19">
+        <v>0</v>
+      </c>
+      <c r="L100" s="19">
+        <v>0</v>
+      </c>
+      <c r="M100" s="19">
+        <v>0</v>
+      </c>
+      <c r="N100" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
+        <v>-1094399</v>
+      </c>
+      <c r="F101" s="15">
+        <v>-2451511</v>
+      </c>
+      <c r="G101" s="15">
+        <v>-2741830</v>
+      </c>
+      <c r="H101" s="15">
+        <v>-2502288</v>
+      </c>
+      <c r="I101" s="15">
+        <v>-3943464</v>
+      </c>
+      <c r="J101" s="15">
         <v>-5926450</v>
       </c>
-      <c r="F101" s="15">
+      <c r="K101" s="15">
         <v>-6494723</v>
       </c>
-      <c r="G101" s="15">
+      <c r="L101" s="15">
         <v>-5151392</v>
       </c>
-      <c r="H101" s="15">
+      <c r="M101" s="15">
         <v>-5412201</v>
       </c>
-      <c r="I101" s="15">
+      <c r="N101" s="15">
         <v>-6004041</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2664,8 +3884,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2674,8 +3899,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2684,10 +3914,15 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2706,8 +3941,23 @@
       <c r="I105" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2716,10 +3966,15 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
@@ -2728,248 +3983,403 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
+        <v>699112</v>
+      </c>
+      <c r="F108" s="11">
+        <v>1258725</v>
+      </c>
+      <c r="G108" s="11">
+        <v>980185</v>
+      </c>
+      <c r="H108" s="11">
+        <v>1902572</v>
+      </c>
+      <c r="I108" s="11">
+        <v>1130591</v>
+      </c>
+      <c r="J108" s="11">
         <v>3286181</v>
       </c>
-      <c r="F108" s="11">
+      <c r="K108" s="11">
         <v>-6319344</v>
       </c>
-      <c r="G108" s="11">
+      <c r="L108" s="11">
         <v>4003935</v>
       </c>
-      <c r="H108" s="11">
+      <c r="M108" s="11">
         <v>-4003935</v>
       </c>
-      <c r="I108" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N108" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13">
+        <v>28161</v>
+      </c>
+      <c r="F109" s="13">
+        <v>65101</v>
+      </c>
+      <c r="G109" s="13">
+        <v>105</v>
+      </c>
+      <c r="H109" s="13">
+        <v>135588</v>
+      </c>
+      <c r="I109" s="13">
+        <v>121343</v>
+      </c>
+      <c r="J109" s="13">
         <v>265918</v>
       </c>
-      <c r="F109" s="13">
+      <c r="K109" s="13">
         <v>403489</v>
       </c>
-      <c r="G109" s="13">
+      <c r="L109" s="13">
         <v>339359</v>
       </c>
-      <c r="H109" s="13">
+      <c r="M109" s="13">
         <v>358464</v>
       </c>
-      <c r="I109" s="13">
+      <c r="N109" s="13">
         <v>602458</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" s="11">
+        <v>20</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" s="11">
         <v>855447</v>
       </c>
-      <c r="G110" s="11">
+      <c r="L110" s="11">
         <v>205458</v>
       </c>
-      <c r="H110" s="11">
+      <c r="M110" s="11">
         <v>357401</v>
       </c>
-      <c r="I110" s="11">
+      <c r="N110" s="11">
         <v>561242</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
+        <v>512110</v>
+      </c>
+      <c r="F111" s="13">
+        <v>624950</v>
+      </c>
+      <c r="G111" s="13">
+        <v>677409</v>
+      </c>
+      <c r="H111" s="13">
+        <v>890142</v>
+      </c>
+      <c r="I111" s="13">
+        <v>1095297</v>
+      </c>
+      <c r="J111" s="13">
         <v>2413730</v>
       </c>
-      <c r="F111" s="13">
+      <c r="K111" s="13">
         <v>-4399169</v>
       </c>
-      <c r="G111" s="13">
-        <v>0</v>
-      </c>
-      <c r="H111" s="13">
-        <v>0</v>
-      </c>
-      <c r="I111" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L111" s="13">
+        <v>0</v>
+      </c>
+      <c r="M111" s="13">
+        <v>0</v>
+      </c>
+      <c r="N111" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="11">
+        <v>20</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K112" s="11">
         <v>5333720</v>
       </c>
-      <c r="G112" s="11">
+      <c r="L112" s="11">
         <v>1523818</v>
       </c>
-      <c r="H112" s="11">
+      <c r="M112" s="11">
         <v>1112432</v>
       </c>
-      <c r="I112" s="11">
+      <c r="N112" s="11">
         <v>819380</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F113" s="13">
-        <v>0</v>
-      </c>
-      <c r="G113" s="13">
-        <v>0</v>
-      </c>
-      <c r="H113" s="13">
-        <v>0</v>
-      </c>
-      <c r="I113" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K113" s="13">
+        <v>0</v>
+      </c>
+      <c r="L113" s="13">
+        <v>0</v>
+      </c>
+      <c r="M113" s="13">
+        <v>0</v>
+      </c>
+      <c r="N113" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F114" s="11">
-        <v>0</v>
-      </c>
-      <c r="G114" s="11">
-        <v>0</v>
-      </c>
-      <c r="H114" s="11">
-        <v>0</v>
-      </c>
-      <c r="I114" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K114" s="11">
+        <v>0</v>
+      </c>
+      <c r="L114" s="11">
+        <v>0</v>
+      </c>
+      <c r="M114" s="11">
+        <v>0</v>
+      </c>
+      <c r="N114" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115" s="13">
-        <v>0</v>
-      </c>
-      <c r="G115" s="13">
-        <v>0</v>
-      </c>
-      <c r="H115" s="13">
-        <v>0</v>
-      </c>
-      <c r="I115" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J115" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K115" s="13">
+        <v>0</v>
+      </c>
+      <c r="L115" s="13">
+        <v>0</v>
+      </c>
+      <c r="M115" s="13">
+        <v>0</v>
+      </c>
+      <c r="N115" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F116" s="11">
+        <v>20</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K116" s="11">
         <v>6802702</v>
       </c>
-      <c r="G116" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I116" s="11">
+      <c r="L116" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N116" s="11">
         <v>2566579</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15">
+        <v>1239383</v>
+      </c>
+      <c r="F117" s="15">
+        <v>1948776</v>
+      </c>
+      <c r="G117" s="15">
+        <v>1657699</v>
+      </c>
+      <c r="H117" s="15">
+        <v>2928302</v>
+      </c>
+      <c r="I117" s="15">
+        <v>2347231</v>
+      </c>
+      <c r="J117" s="15">
         <v>5965829</v>
       </c>
-      <c r="F117" s="15">
+      <c r="K117" s="15">
         <v>2676845</v>
       </c>
-      <c r="G117" s="15">
+      <c r="L117" s="15">
         <v>6072570</v>
       </c>
-      <c r="H117" s="15">
+      <c r="M117" s="15">
         <v>-2175638</v>
       </c>
-      <c r="I117" s="15">
+      <c r="N117" s="15">
         <v>4549659</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
@@ -2978,104 +4388,169 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9"/>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
+        <v>1268502</v>
+      </c>
+      <c r="F119" s="11">
+        <v>3405426</v>
+      </c>
+      <c r="G119" s="11">
+        <v>2258643</v>
+      </c>
+      <c r="H119" s="11">
+        <v>2328870</v>
+      </c>
+      <c r="I119" s="11">
+        <v>4680702</v>
+      </c>
+      <c r="J119" s="11">
         <v>7187988</v>
       </c>
-      <c r="F119" s="11">
+      <c r="K119" s="11">
         <v>2457792</v>
       </c>
-      <c r="G119" s="11">
+      <c r="L119" s="11">
         <v>7317241</v>
       </c>
-      <c r="H119" s="11">
+      <c r="M119" s="11">
         <v>14092439</v>
       </c>
-      <c r="I119" s="11">
+      <c r="N119" s="11">
         <v>8213918</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13">
+        <v>1817</v>
+      </c>
+      <c r="F120" s="13">
+        <v>23350</v>
+      </c>
+      <c r="G120" s="13">
+        <v>1751</v>
+      </c>
+      <c r="H120" s="13">
+        <v>15162</v>
+      </c>
+      <c r="I120" s="13">
+        <v>873</v>
+      </c>
+      <c r="J120" s="13">
         <v>123163</v>
       </c>
-      <c r="F120" s="13">
+      <c r="K120" s="13">
         <v>130715</v>
       </c>
-      <c r="G120" s="13">
+      <c r="L120" s="13">
         <v>370288</v>
       </c>
-      <c r="H120" s="13">
+      <c r="M120" s="13">
         <v>911049</v>
       </c>
-      <c r="I120" s="13">
+      <c r="N120" s="13">
         <v>869852</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
+        <v>76383</v>
+      </c>
+      <c r="F121" s="11">
+        <v>318717</v>
+      </c>
+      <c r="G121" s="11">
+        <v>150853</v>
+      </c>
+      <c r="H121" s="11">
+        <v>621532</v>
+      </c>
+      <c r="I121" s="11">
+        <v>1287070</v>
+      </c>
+      <c r="J121" s="11">
         <v>1046314</v>
       </c>
-      <c r="F121" s="11">
+      <c r="K121" s="11">
         <v>68429</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>621833</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>108016</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>216023</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="14" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
       <c r="E122" s="15">
+        <v>1346702</v>
+      </c>
+      <c r="F122" s="15">
+        <v>3747493</v>
+      </c>
+      <c r="G122" s="15">
+        <v>2411247</v>
+      </c>
+      <c r="H122" s="15">
+        <v>2965564</v>
+      </c>
+      <c r="I122" s="15">
+        <v>5968645</v>
+      </c>
+      <c r="J122" s="15">
         <v>8357465</v>
       </c>
-      <c r="F122" s="15">
+      <c r="K122" s="15">
         <v>2656936</v>
       </c>
-      <c r="G122" s="15">
+      <c r="L122" s="15">
         <v>8309362</v>
       </c>
-      <c r="H122" s="15">
+      <c r="M122" s="15">
         <v>15111504</v>
       </c>
-      <c r="I122" s="15">
+      <c r="N122" s="15">
         <v>9299793</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C123" s="17"/>
       <c r="D123" s="17"/>
@@ -3084,10 +4559,15 @@
       <c r="G123" s="17"/>
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C124" s="19"/>
       <c r="D124" s="19"/>
@@ -3106,26 +4586,56 @@
       <c r="I124" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="19">
+        <v>0</v>
+      </c>
+      <c r="K124" s="19">
+        <v>0</v>
+      </c>
+      <c r="L124" s="19">
+        <v>0</v>
+      </c>
+      <c r="M124" s="19">
+        <v>0</v>
+      </c>
+      <c r="N124" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
       <c r="E125" s="15">
+        <v>2586085</v>
+      </c>
+      <c r="F125" s="15">
+        <v>5696269</v>
+      </c>
+      <c r="G125" s="15">
+        <v>4068946</v>
+      </c>
+      <c r="H125" s="15">
+        <v>5893866</v>
+      </c>
+      <c r="I125" s="15">
+        <v>8315876</v>
+      </c>
+      <c r="J125" s="15">
         <v>14323294</v>
       </c>
-      <c r="F125" s="15">
+      <c r="K125" s="15">
         <v>5333781</v>
       </c>
-      <c r="G125" s="15">
+      <c r="L125" s="15">
         <v>14381932</v>
       </c>
-      <c r="H125" s="15">
+      <c r="M125" s="15">
         <v>12935866</v>
       </c>
-      <c r="I125" s="15">
+      <c r="N125" s="15">
         <v>13849452</v>
       </c>
     </row>

--- a/database/industries/urea/khorasan/product/quarterly_seprated.xlsx
+++ b/database/industries/urea/khorasan/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D44F0A-1F6F-4267-AD2C-92BFA0A9E81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818C1838-02F1-4B35-B080-CC7C03AF519C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -679,12 +679,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -699,7 +699,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -733,7 +733,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -748,7 +748,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -797,7 +797,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -834,7 +834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -849,7 +849,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -875,37 +875,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>43610</v>
+        <v>54662</v>
       </c>
       <c r="F11" s="11">
-        <v>54662</v>
+        <v>41092</v>
       </c>
       <c r="G11" s="11">
-        <v>41092</v>
+        <v>65959</v>
       </c>
       <c r="H11" s="11">
-        <v>65959</v>
+        <v>48086</v>
       </c>
       <c r="I11" s="11">
-        <v>48086</v>
+        <v>164006</v>
       </c>
       <c r="J11" s="11">
-        <v>164006</v>
+        <v>-164006</v>
       </c>
       <c r="K11" s="11">
-        <v>-164006</v>
+        <v>48841</v>
       </c>
       <c r="L11" s="11">
-        <v>48841</v>
+        <v>-48841</v>
       </c>
       <c r="M11" s="11">
-        <v>-48841</v>
+        <v>0</v>
       </c>
       <c r="N11" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -914,37 +914,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>2175</v>
+        <v>5462</v>
       </c>
       <c r="F12" s="13">
-        <v>5462</v>
+        <v>1556</v>
       </c>
       <c r="G12" s="13">
-        <v>1556</v>
+        <v>5355</v>
       </c>
       <c r="H12" s="13">
-        <v>5355</v>
+        <v>3945</v>
       </c>
       <c r="I12" s="13">
-        <v>3945</v>
+        <v>5554</v>
       </c>
       <c r="J12" s="13">
-        <v>5554</v>
+        <v>6261</v>
       </c>
       <c r="K12" s="13">
-        <v>6261</v>
+        <v>3243</v>
       </c>
       <c r="L12" s="13">
-        <v>3243</v>
+        <v>2417</v>
       </c>
       <c r="M12" s="13">
-        <v>2417</v>
+        <v>3933</v>
       </c>
       <c r="N12" s="13">
-        <v>3933</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -967,23 +967,23 @@
       <c r="I13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>20</v>
+      <c r="J13" s="11">
+        <v>13118</v>
       </c>
       <c r="K13" s="11">
-        <v>13118</v>
+        <v>1759</v>
       </c>
       <c r="L13" s="11">
-        <v>1759</v>
+        <v>4005</v>
       </c>
       <c r="M13" s="11">
-        <v>4005</v>
+        <v>5902</v>
       </c>
       <c r="N13" s="11">
-        <v>5902</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -992,25 +992,25 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>3717</v>
+        <v>3453</v>
       </c>
       <c r="F14" s="13">
-        <v>3453</v>
+        <v>2855</v>
       </c>
       <c r="G14" s="13">
-        <v>2855</v>
+        <v>3101</v>
       </c>
       <c r="H14" s="13">
-        <v>3101</v>
+        <v>6237</v>
       </c>
       <c r="I14" s="13">
-        <v>6237</v>
+        <v>9786</v>
       </c>
       <c r="J14" s="13">
-        <v>9786</v>
+        <v>-9786</v>
       </c>
       <c r="K14" s="13">
-        <v>-9786</v>
+        <v>0</v>
       </c>
       <c r="L14" s="13">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1045,23 +1045,23 @@
       <c r="I15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>20</v>
+      <c r="J15" s="11">
+        <v>12693</v>
       </c>
       <c r="K15" s="11">
-        <v>12693</v>
+        <v>3632</v>
       </c>
       <c r="L15" s="11">
-        <v>3632</v>
+        <v>4441</v>
       </c>
       <c r="M15" s="11">
-        <v>4441</v>
+        <v>4062</v>
       </c>
       <c r="N15" s="11">
-        <v>4062</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1084,8 +1084,8 @@
       <c r="I16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>20</v>
+      <c r="J16" s="13">
+        <v>0</v>
       </c>
       <c r="K16" s="13">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1123,8 +1123,8 @@
       <c r="I17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>20</v>
+      <c r="J17" s="11">
+        <v>0</v>
       </c>
       <c r="K17" s="11">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1162,8 +1162,8 @@
       <c r="I18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>20</v>
+      <c r="J18" s="13">
+        <v>0</v>
       </c>
       <c r="K18" s="13">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1201,60 +1201,60 @@
       <c r="I19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" s="11">
+      <c r="J19" s="11">
         <v>186775</v>
       </c>
+      <c r="K19" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="L19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>20</v>
+      <c r="M19" s="11">
+        <v>34924</v>
       </c>
       <c r="N19" s="11">
-        <v>34924</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11725</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15">
-        <v>49502</v>
+        <v>63577</v>
       </c>
       <c r="F20" s="15">
-        <v>63577</v>
+        <v>45503</v>
       </c>
       <c r="G20" s="15">
-        <v>45503</v>
+        <v>74415</v>
       </c>
       <c r="H20" s="15">
-        <v>74415</v>
+        <v>58268</v>
       </c>
       <c r="I20" s="15">
-        <v>58268</v>
+        <v>179346</v>
       </c>
       <c r="J20" s="15">
-        <v>179346</v>
+        <v>45055</v>
       </c>
       <c r="K20" s="15">
-        <v>45055</v>
+        <v>57475</v>
       </c>
       <c r="L20" s="15">
-        <v>57475</v>
+        <v>-37978</v>
       </c>
       <c r="M20" s="15">
-        <v>-37978</v>
+        <v>48821</v>
       </c>
       <c r="N20" s="15">
-        <v>48821</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>18678</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
@@ -1271,7 +1271,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>16</v>
       </c>
@@ -1280,37 +1280,37 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
-        <v>47771</v>
+        <v>89291</v>
       </c>
       <c r="F22" s="11">
-        <v>89291</v>
+        <v>70320</v>
       </c>
       <c r="G22" s="11">
-        <v>70320</v>
+        <v>51480</v>
       </c>
       <c r="H22" s="11">
-        <v>51480</v>
+        <v>91301</v>
       </c>
       <c r="I22" s="11">
-        <v>91301</v>
+        <v>78563</v>
       </c>
       <c r="J22" s="11">
-        <v>78563</v>
+        <v>35579</v>
       </c>
       <c r="K22" s="11">
-        <v>35579</v>
+        <v>64368</v>
       </c>
       <c r="L22" s="11">
-        <v>64368</v>
+        <v>143351</v>
       </c>
       <c r="M22" s="11">
-        <v>143351</v>
+        <v>72503</v>
       </c>
       <c r="N22" s="11">
-        <v>72503</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>91645</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>18</v>
       </c>
@@ -1319,37 +1319,37 @@
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>139</v>
+        <v>1823</v>
       </c>
       <c r="F23" s="13">
-        <v>1823</v>
+        <v>507</v>
       </c>
       <c r="G23" s="13">
-        <v>507</v>
+        <v>661</v>
       </c>
       <c r="H23" s="13">
-        <v>661</v>
+        <v>158</v>
       </c>
       <c r="I23" s="13">
-        <v>158</v>
+        <v>2320</v>
       </c>
       <c r="J23" s="13">
-        <v>2320</v>
+        <v>1673</v>
       </c>
       <c r="K23" s="13">
-        <v>1673</v>
+        <v>2990</v>
       </c>
       <c r="L23" s="13">
-        <v>2990</v>
+        <v>6723</v>
       </c>
       <c r="M23" s="13">
-        <v>6723</v>
+        <v>5883</v>
       </c>
       <c r="N23" s="13">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>21</v>
       </c>
@@ -1358,74 +1358,74 @@
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11">
-        <v>772</v>
+        <v>2280</v>
       </c>
       <c r="F24" s="11">
-        <v>2280</v>
+        <v>792</v>
       </c>
       <c r="G24" s="11">
-        <v>792</v>
+        <v>1706</v>
       </c>
       <c r="H24" s="11">
-        <v>1706</v>
+        <v>2748</v>
       </c>
       <c r="I24" s="11">
-        <v>2748</v>
+        <v>1417</v>
       </c>
       <c r="J24" s="11">
-        <v>1417</v>
+        <v>700</v>
       </c>
       <c r="K24" s="11">
-        <v>700</v>
+        <v>1312</v>
       </c>
       <c r="L24" s="11">
-        <v>1312</v>
+        <v>598</v>
       </c>
       <c r="M24" s="11">
-        <v>598</v>
+        <v>1084</v>
       </c>
       <c r="N24" s="11">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
-        <v>48682</v>
+        <v>93394</v>
       </c>
       <c r="F25" s="15">
-        <v>93394</v>
+        <v>71619</v>
       </c>
       <c r="G25" s="15">
-        <v>71619</v>
+        <v>53847</v>
       </c>
       <c r="H25" s="15">
-        <v>53847</v>
+        <v>94207</v>
       </c>
       <c r="I25" s="15">
-        <v>94207</v>
+        <v>82300</v>
       </c>
       <c r="J25" s="15">
-        <v>82300</v>
+        <v>37952</v>
       </c>
       <c r="K25" s="15">
-        <v>37952</v>
+        <v>68670</v>
       </c>
       <c r="L25" s="15">
-        <v>68670</v>
+        <v>150672</v>
       </c>
       <c r="M25" s="15">
-        <v>150672</v>
+        <v>79470</v>
       </c>
       <c r="N25" s="15">
-        <v>79470</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>92988</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>30</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="M26" s="17"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>31</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>32</v>
       </c>
@@ -1493,8 +1493,8 @@
       <c r="F28" s="15">
         <v>0</v>
       </c>
-      <c r="G28" s="15">
-        <v>0</v>
+      <c r="G28" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>20</v>
@@ -1518,7 +1518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="18" t="s">
         <v>34</v>
       </c>
@@ -1555,44 +1555,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15">
-        <v>98184</v>
+        <v>156971</v>
       </c>
       <c r="F30" s="15">
-        <v>156971</v>
+        <v>117122</v>
       </c>
       <c r="G30" s="15">
-        <v>117122</v>
+        <v>128262</v>
       </c>
       <c r="H30" s="15">
-        <v>128262</v>
+        <v>152475</v>
       </c>
       <c r="I30" s="15">
-        <v>152475</v>
+        <v>261646</v>
       </c>
       <c r="J30" s="15">
-        <v>261646</v>
+        <v>83007</v>
       </c>
       <c r="K30" s="15">
-        <v>83007</v>
+        <v>126145</v>
       </c>
       <c r="L30" s="15">
-        <v>126145</v>
+        <v>112694</v>
       </c>
       <c r="M30" s="15">
-        <v>112694</v>
+        <v>128291</v>
       </c>
       <c r="N30" s="15">
-        <v>128291</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>111666</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1607,7 +1607,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1622,7 +1622,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1637,7 +1637,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>36</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1689,7 +1689,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>37</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>16</v>
       </c>
@@ -1715,37 +1715,37 @@
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11">
-        <v>1112725</v>
+        <v>2053105</v>
       </c>
       <c r="F37" s="11">
-        <v>2053105</v>
+        <v>1751529</v>
       </c>
       <c r="G37" s="11">
-        <v>1751529</v>
+        <v>2960470</v>
       </c>
       <c r="H37" s="11">
-        <v>2960470</v>
+        <v>2413247</v>
       </c>
       <c r="I37" s="11">
-        <v>2413247</v>
+        <v>10276124</v>
       </c>
       <c r="J37" s="11">
-        <v>10276124</v>
+        <v>-10276124</v>
       </c>
       <c r="K37" s="11">
-        <v>-10276124</v>
+        <v>5697253</v>
       </c>
       <c r="L37" s="11">
-        <v>5697253</v>
+        <v>-5697253</v>
       </c>
       <c r="M37" s="11">
-        <v>-5697253</v>
+        <v>0</v>
       </c>
       <c r="N37" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>18</v>
       </c>
@@ -1754,37 +1754,37 @@
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>52308</v>
+        <v>157979</v>
       </c>
       <c r="F38" s="13">
-        <v>157979</v>
+        <v>55759</v>
       </c>
       <c r="G38" s="13">
-        <v>55759</v>
+        <v>252384</v>
       </c>
       <c r="H38" s="13">
-        <v>252384</v>
+        <v>268246</v>
       </c>
       <c r="I38" s="13">
-        <v>268246</v>
+        <v>558963</v>
       </c>
       <c r="J38" s="13">
-        <v>558963</v>
+        <v>872704</v>
       </c>
       <c r="K38" s="13">
-        <v>872704</v>
+        <v>510733</v>
       </c>
       <c r="L38" s="13">
-        <v>510733</v>
+        <v>486980</v>
       </c>
       <c r="M38" s="13">
-        <v>486980</v>
+        <v>811374</v>
       </c>
       <c r="N38" s="13">
-        <v>811374</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>415302</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>19</v>
       </c>
@@ -1807,23 +1807,23 @@
       <c r="I39" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="11" t="s">
-        <v>20</v>
+      <c r="J39" s="11">
+        <v>1244920</v>
       </c>
       <c r="K39" s="11">
-        <v>1244920</v>
+        <v>266443</v>
       </c>
       <c r="L39" s="11">
-        <v>266443</v>
+        <v>492936</v>
       </c>
       <c r="M39" s="11">
-        <v>492936</v>
+        <v>766225</v>
       </c>
       <c r="N39" s="11">
-        <v>766225</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>465385</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>21</v>
       </c>
@@ -1832,25 +1832,25 @@
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>676509</v>
+        <v>841760</v>
       </c>
       <c r="F40" s="13">
-        <v>841760</v>
+        <v>913145</v>
       </c>
       <c r="G40" s="13">
-        <v>913145</v>
+        <v>1108335</v>
       </c>
       <c r="H40" s="13">
-        <v>1108335</v>
+        <v>2496051</v>
       </c>
       <c r="I40" s="13">
-        <v>2496051</v>
+        <v>5384605</v>
       </c>
       <c r="J40" s="13">
-        <v>5384605</v>
+        <v>-5384605</v>
       </c>
       <c r="K40" s="13">
-        <v>-5384605</v>
+        <v>0</v>
       </c>
       <c r="L40" s="13">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>22</v>
       </c>
@@ -1885,23 +1885,23 @@
       <c r="I41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="11" t="s">
-        <v>20</v>
+      <c r="J41" s="11">
+        <v>7362151</v>
       </c>
       <c r="K41" s="11">
-        <v>7362151</v>
+        <v>2061880</v>
       </c>
       <c r="L41" s="11">
-        <v>2061880</v>
+        <v>2053536</v>
       </c>
       <c r="M41" s="11">
-        <v>2053536</v>
+        <v>1667832</v>
       </c>
       <c r="N41" s="11">
-        <v>1667832</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>407998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>23</v>
       </c>
@@ -1924,8 +1924,8 @@
       <c r="I42" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="13" t="s">
-        <v>20</v>
+      <c r="J42" s="13">
+        <v>0</v>
       </c>
       <c r="K42" s="13">
         <v>0</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>24</v>
       </c>
@@ -1963,8 +1963,8 @@
       <c r="I43" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="11" t="s">
-        <v>20</v>
+      <c r="J43" s="11">
+        <v>0</v>
       </c>
       <c r="K43" s="11">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>25</v>
       </c>
@@ -2002,8 +2002,8 @@
       <c r="I44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J44" s="13" t="s">
-        <v>20</v>
+      <c r="J44" s="13">
+        <v>0</v>
       </c>
       <c r="K44" s="13">
         <v>0</v>
@@ -2018,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>26</v>
       </c>
@@ -2041,60 +2041,60 @@
       <c r="I45" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="11">
+      <c r="J45" s="11">
         <v>12348052</v>
       </c>
+      <c r="K45" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="L45" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M45" s="11" t="s">
-        <v>20</v>
+      <c r="M45" s="11">
+        <v>3792959</v>
       </c>
       <c r="N45" s="11">
-        <v>3792959</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4273</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15">
-        <v>1841542</v>
+        <v>3052844</v>
       </c>
       <c r="F46" s="15">
-        <v>3052844</v>
+        <v>2720433</v>
       </c>
       <c r="G46" s="15">
-        <v>2720433</v>
+        <v>4321189</v>
       </c>
       <c r="H46" s="15">
-        <v>4321189</v>
+        <v>5177544</v>
       </c>
       <c r="I46" s="15">
-        <v>5177544</v>
+        <v>16219692</v>
       </c>
       <c r="J46" s="15">
-        <v>16219692</v>
+        <v>6167098</v>
       </c>
       <c r="K46" s="15">
-        <v>6167098</v>
+        <v>8536309</v>
       </c>
       <c r="L46" s="15">
-        <v>8536309</v>
+        <v>-2663801</v>
       </c>
       <c r="M46" s="15">
-        <v>-2663801</v>
+        <v>7038390</v>
       </c>
       <c r="N46" s="15">
-        <v>7038390</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1284412</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>39</v>
       </c>
@@ -2111,7 +2111,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>16</v>
       </c>
@@ -2120,37 +2120,37 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>1725293</v>
+        <v>4604846</v>
       </c>
       <c r="F48" s="11">
-        <v>4604846</v>
+        <v>3847254</v>
       </c>
       <c r="G48" s="11">
-        <v>3847254</v>
+        <v>3298246</v>
       </c>
       <c r="H48" s="11">
-        <v>3298246</v>
+        <v>6929991</v>
       </c>
       <c r="I48" s="11">
-        <v>6929991</v>
+        <v>10133778</v>
       </c>
       <c r="J48" s="11">
-        <v>10133778</v>
+        <v>4877915</v>
       </c>
       <c r="K48" s="11">
-        <v>4877915</v>
+        <v>9651908</v>
       </c>
       <c r="L48" s="11">
-        <v>9651908</v>
+        <v>19480697</v>
       </c>
       <c r="M48" s="11">
-        <v>19480697</v>
+        <v>11186895</v>
       </c>
       <c r="N48" s="11">
-        <v>11186895</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11722532</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>18</v>
       </c>
@@ -2159,37 +2159,37 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>3360</v>
+        <v>51559</v>
       </c>
       <c r="F49" s="13">
-        <v>51559</v>
+        <v>16484</v>
       </c>
       <c r="G49" s="13">
-        <v>16484</v>
+        <v>29583</v>
       </c>
       <c r="H49" s="13">
-        <v>29583</v>
+        <v>8868</v>
       </c>
       <c r="I49" s="13">
-        <v>8868</v>
+        <v>216440</v>
       </c>
       <c r="J49" s="13">
-        <v>216440</v>
+        <v>246702</v>
       </c>
       <c r="K49" s="13">
-        <v>246702</v>
+        <v>528271</v>
       </c>
       <c r="L49" s="13">
-        <v>528271</v>
+        <v>1267604</v>
       </c>
       <c r="M49" s="13">
-        <v>1267604</v>
+        <v>1182553</v>
       </c>
       <c r="N49" s="13">
-        <v>1182553</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>224071</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>21</v>
       </c>
@@ -2198,74 +2198,74 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>110289</v>
+        <v>439770</v>
       </c>
       <c r="F50" s="11">
-        <v>439770</v>
+        <v>232414</v>
       </c>
       <c r="G50" s="11">
-        <v>232414</v>
+        <v>747136</v>
       </c>
       <c r="H50" s="11">
-        <v>747136</v>
+        <v>1534347</v>
       </c>
       <c r="I50" s="11">
-        <v>1534347</v>
+        <v>1275798</v>
       </c>
       <c r="J50" s="11">
-        <v>1275798</v>
+        <v>536789</v>
       </c>
       <c r="K50" s="11">
-        <v>536789</v>
+        <v>816836</v>
       </c>
       <c r="L50" s="11">
-        <v>816836</v>
+        <v>263567</v>
       </c>
       <c r="M50" s="11">
-        <v>263567</v>
+        <v>445655</v>
       </c>
       <c r="N50" s="11">
-        <v>445655</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>81527</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
-        <v>1838942</v>
+        <v>5096175</v>
       </c>
       <c r="F51" s="15">
-        <v>5096175</v>
+        <v>4096152</v>
       </c>
       <c r="G51" s="15">
-        <v>4096152</v>
+        <v>4074965</v>
       </c>
       <c r="H51" s="15">
-        <v>4074965</v>
+        <v>8473206</v>
       </c>
       <c r="I51" s="15">
-        <v>8473206</v>
+        <v>11626016</v>
       </c>
       <c r="J51" s="15">
-        <v>11626016</v>
+        <v>5661406</v>
       </c>
       <c r="K51" s="15">
-        <v>5661406</v>
+        <v>10997015</v>
       </c>
       <c r="L51" s="15">
-        <v>10997015</v>
+        <v>21011868</v>
       </c>
       <c r="M51" s="15">
-        <v>21011868</v>
+        <v>12815103</v>
       </c>
       <c r="N51" s="15">
-        <v>12815103</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12028130</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="16" t="s">
         <v>40</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="18" t="s">
         <v>31</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
         <v>32</v>
       </c>
@@ -2333,8 +2333,8 @@
       <c r="F54" s="15">
         <v>0</v>
       </c>
-      <c r="G54" s="15">
-        <v>0</v>
+      <c r="G54" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="H54" s="15" t="s">
         <v>20</v>
@@ -2358,7 +2358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="18" t="s">
         <v>34</v>
       </c>
@@ -2367,16 +2367,16 @@
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19">
-        <v>-1239</v>
+        <v>-5809</v>
       </c>
       <c r="F55" s="19">
-        <v>-5809</v>
+        <v>-7130</v>
       </c>
       <c r="G55" s="19">
-        <v>-7130</v>
+        <v>-9314</v>
       </c>
       <c r="H55" s="19">
-        <v>-9314</v>
+        <v>0</v>
       </c>
       <c r="I55" s="19">
         <v>0</v>
@@ -2397,44 +2397,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15">
-        <v>3679245</v>
+        <v>8143210</v>
       </c>
       <c r="F56" s="15">
-        <v>8143210</v>
+        <v>6809455</v>
       </c>
       <c r="G56" s="15">
-        <v>6809455</v>
+        <v>8386840</v>
       </c>
       <c r="H56" s="15">
-        <v>8386840</v>
+        <v>13650750</v>
       </c>
       <c r="I56" s="15">
-        <v>13650750</v>
+        <v>27845708</v>
       </c>
       <c r="J56" s="15">
-        <v>27845708</v>
+        <v>11828504</v>
       </c>
       <c r="K56" s="15">
-        <v>11828504</v>
+        <v>19533324</v>
       </c>
       <c r="L56" s="15">
-        <v>19533324</v>
+        <v>18348067</v>
       </c>
       <c r="M56" s="15">
-        <v>18348067</v>
+        <v>19853493</v>
       </c>
       <c r="N56" s="15">
-        <v>19853493</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13312542</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2449,7 +2449,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2464,7 +2464,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2479,7 +2479,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>41</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2531,7 +2531,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>42</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
@@ -2557,37 +2557,37 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11">
-        <v>25515363</v>
+        <v>37560005</v>
       </c>
       <c r="F63" s="11">
-        <v>37560005</v>
+        <v>42624574</v>
       </c>
       <c r="G63" s="11">
-        <v>42624574</v>
+        <v>44883488</v>
       </c>
       <c r="H63" s="11">
-        <v>44883488</v>
+        <v>50186062</v>
       </c>
       <c r="I63" s="11">
-        <v>50186062</v>
+        <v>90239969</v>
       </c>
       <c r="J63" s="11">
-        <v>90239969</v>
+        <v>62657000</v>
       </c>
       <c r="K63" s="11">
-        <v>62657000</v>
+        <v>116648983</v>
       </c>
       <c r="L63" s="11">
         <v>116648983</v>
       </c>
-      <c r="M63" s="11">
-        <v>116648983</v>
+      <c r="M63" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="N63" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>18</v>
       </c>
@@ -2596,37 +2596,37 @@
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="13">
-        <v>24049655</v>
+        <v>28696448</v>
       </c>
       <c r="F64" s="13">
-        <v>28696448</v>
+        <v>32101542</v>
       </c>
       <c r="G64" s="13">
-        <v>32101542</v>
+        <v>47130532</v>
       </c>
       <c r="H64" s="13">
-        <v>47130532</v>
+        <v>67996451</v>
       </c>
       <c r="I64" s="13">
-        <v>67996451</v>
+        <v>100641520</v>
       </c>
       <c r="J64" s="13">
-        <v>100641520</v>
+        <v>139387318</v>
       </c>
       <c r="K64" s="13">
-        <v>139387318</v>
+        <v>157487820</v>
       </c>
       <c r="L64" s="13">
-        <v>157487820</v>
+        <v>201481175</v>
       </c>
       <c r="M64" s="13">
-        <v>201481175</v>
+        <v>206299008</v>
       </c>
       <c r="N64" s="13">
-        <v>206299008</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>180487614</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>19</v>
       </c>
@@ -2649,23 +2649,23 @@
       <c r="I65" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J65" s="11" t="s">
-        <v>20</v>
+      <c r="J65" s="11">
+        <v>94901662</v>
       </c>
       <c r="K65" s="11">
-        <v>94901662</v>
+        <v>151474133</v>
       </c>
       <c r="L65" s="11">
-        <v>151474133</v>
+        <v>123080150</v>
       </c>
       <c r="M65" s="11">
-        <v>123080150</v>
+        <v>129824636</v>
       </c>
       <c r="N65" s="11">
-        <v>129824636</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>120973486</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>21</v>
       </c>
@@ -2674,25 +2674,25 @@
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
-        <v>182004036</v>
+        <v>243776426</v>
       </c>
       <c r="F66" s="13">
-        <v>243776426</v>
+        <v>319840630</v>
       </c>
       <c r="G66" s="13">
-        <v>319840630</v>
+        <v>357412125</v>
       </c>
       <c r="H66" s="13">
-        <v>357412125</v>
+        <v>400200577</v>
       </c>
       <c r="I66" s="13">
-        <v>400200577</v>
+        <v>550235541</v>
       </c>
       <c r="J66" s="13">
         <v>550235541</v>
       </c>
-      <c r="K66" s="13">
-        <v>550235541</v>
+      <c r="K66" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="L66" s="13" t="s">
         <v>20</v>
@@ -2704,7 +2704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>22</v>
       </c>
@@ -2727,23 +2727,23 @@
       <c r="I67" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J67" s="11" t="s">
-        <v>20</v>
+      <c r="J67" s="11">
+        <v>580016623</v>
       </c>
       <c r="K67" s="11">
-        <v>580016623</v>
+        <v>567698238</v>
       </c>
       <c r="L67" s="11">
-        <v>567698238</v>
+        <v>462403963</v>
       </c>
       <c r="M67" s="11">
-        <v>462403963</v>
+        <v>410593796</v>
       </c>
       <c r="N67" s="11">
-        <v>410593796</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>506829814</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>23</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>24</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>25</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>26</v>
       </c>
@@ -2883,23 +2883,23 @@
       <c r="I71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J71" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K71" s="11">
+      <c r="J71" s="11">
         <v>66111910</v>
       </c>
+      <c r="K71" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="L71" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M71" s="11" t="s">
-        <v>20</v>
+      <c r="M71" s="11">
+        <v>108606088</v>
       </c>
       <c r="N71" s="11">
-        <v>108606088</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>364435</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>44</v>
       </c>
@@ -2916,7 +2916,7 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
@@ -2925,37 +2925,37 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>36115907</v>
+        <v>51571222</v>
       </c>
       <c r="F73" s="11">
-        <v>51571222</v>
+        <v>54710666</v>
       </c>
       <c r="G73" s="11">
-        <v>54710666</v>
+        <v>64068493</v>
       </c>
       <c r="H73" s="11">
-        <v>64068493</v>
+        <v>75902685</v>
       </c>
       <c r="I73" s="11">
-        <v>75902685</v>
+        <v>128989193</v>
       </c>
       <c r="J73" s="11">
-        <v>128989193</v>
+        <v>137100958</v>
       </c>
       <c r="K73" s="11">
-        <v>137100958</v>
+        <v>149948857</v>
       </c>
       <c r="L73" s="11">
-        <v>149948857</v>
+        <v>135895090</v>
       </c>
       <c r="M73" s="11">
-        <v>135895090</v>
+        <v>154295615</v>
       </c>
       <c r="N73" s="11">
-        <v>154295615</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>127912401</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>18</v>
       </c>
@@ -2964,37 +2964,37 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>24172662</v>
+        <v>28282501</v>
       </c>
       <c r="F74" s="13">
-        <v>28282501</v>
+        <v>32512821</v>
       </c>
       <c r="G74" s="13">
-        <v>32512821</v>
+        <v>44754917</v>
       </c>
       <c r="H74" s="13">
-        <v>44754917</v>
+        <v>56126582</v>
       </c>
       <c r="I74" s="13">
-        <v>56126582</v>
+        <v>93293103</v>
       </c>
       <c r="J74" s="13">
-        <v>93293103</v>
+        <v>147460849</v>
       </c>
       <c r="K74" s="13">
-        <v>147460849</v>
+        <v>176679264</v>
       </c>
       <c r="L74" s="13">
-        <v>176679264</v>
+        <v>188547375</v>
       </c>
       <c r="M74" s="13">
-        <v>188547375</v>
+        <v>201011899</v>
       </c>
       <c r="N74" s="13">
-        <v>201011899</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>196037620</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>21</v>
       </c>
@@ -3003,37 +3003,37 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>142861399</v>
+        <v>192881579</v>
       </c>
       <c r="F75" s="11">
-        <v>192881579</v>
+        <v>293452020</v>
       </c>
       <c r="G75" s="11">
-        <v>293452020</v>
+        <v>437946073</v>
       </c>
       <c r="H75" s="11">
-        <v>437946073</v>
+        <v>558350437</v>
       </c>
       <c r="I75" s="11">
-        <v>558350437</v>
+        <v>900351447</v>
       </c>
       <c r="J75" s="11">
-        <v>900351447</v>
+        <v>766841429</v>
       </c>
       <c r="K75" s="11">
-        <v>766841429</v>
+        <v>622588415</v>
       </c>
       <c r="L75" s="11">
-        <v>622588415</v>
+        <v>440747492</v>
       </c>
       <c r="M75" s="11">
-        <v>440747492</v>
+        <v>411120849</v>
       </c>
       <c r="N75" s="11">
-        <v>411120849</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>407635000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3048,7 +3048,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3063,7 +3063,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3078,7 +3078,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>45</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3130,7 +3130,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>46</v>
       </c>
@@ -3147,7 +3147,7 @@
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -3156,37 +3156,37 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>-413613</v>
+        <v>-794380</v>
       </c>
       <c r="F82" s="11">
-        <v>-794380</v>
+        <v>-771344</v>
       </c>
       <c r="G82" s="11">
-        <v>-771344</v>
+        <v>-1057898</v>
       </c>
       <c r="H82" s="11">
-        <v>-1057898</v>
+        <v>-1008852</v>
       </c>
       <c r="I82" s="11">
-        <v>-1008852</v>
+        <v>-1890030</v>
       </c>
       <c r="J82" s="11">
-        <v>-1890030</v>
+        <v>3956780</v>
       </c>
       <c r="K82" s="11">
-        <v>3956780</v>
+        <v>-1693318</v>
       </c>
       <c r="L82" s="11">
-        <v>-1693318</v>
+        <v>1693318</v>
       </c>
       <c r="M82" s="11">
-        <v>1693318</v>
+        <v>0</v>
       </c>
       <c r="N82" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>18</v>
       </c>
@@ -3195,37 +3195,37 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>-24147</v>
+        <v>-91639</v>
       </c>
       <c r="F83" s="13">
-        <v>-91639</v>
+        <v>-49845</v>
       </c>
       <c r="G83" s="13">
-        <v>-49845</v>
+        <v>-116796</v>
       </c>
       <c r="H83" s="13">
-        <v>-116796</v>
+        <v>-137632</v>
       </c>
       <c r="I83" s="13">
-        <v>-137632</v>
+        <v>-293046</v>
       </c>
       <c r="J83" s="13">
-        <v>-293046</v>
+        <v>-469215</v>
       </c>
       <c r="K83" s="13">
-        <v>-469215</v>
+        <v>-171374</v>
       </c>
       <c r="L83" s="13">
-        <v>-171374</v>
+        <v>-128516</v>
       </c>
       <c r="M83" s="13">
-        <v>-128516</v>
+        <v>-208916</v>
       </c>
       <c r="N83" s="13">
-        <v>-208916</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-141743</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>19</v>
       </c>
@@ -3248,23 +3248,23 @@
       <c r="I84" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J84" s="11" t="s">
-        <v>20</v>
+      <c r="J84" s="11">
+        <v>-389473</v>
       </c>
       <c r="K84" s="11">
-        <v>-389473</v>
+        <v>-60985</v>
       </c>
       <c r="L84" s="11">
-        <v>-60985</v>
+        <v>-135535</v>
       </c>
       <c r="M84" s="11">
-        <v>-135535</v>
+        <v>-204983</v>
       </c>
       <c r="N84" s="11">
-        <v>-204983</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-160691</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>21</v>
       </c>
@@ -3273,25 +3273,25 @@
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13">
-        <v>-164399</v>
+        <v>-216810</v>
       </c>
       <c r="F85" s="13">
-        <v>-216810</v>
+        <v>-235736</v>
       </c>
       <c r="G85" s="13">
-        <v>-235736</v>
+        <v>-218193</v>
       </c>
       <c r="H85" s="13">
-        <v>-218193</v>
+        <v>-292419</v>
       </c>
       <c r="I85" s="13">
-        <v>-292419</v>
+        <v>-474824</v>
       </c>
       <c r="J85" s="13">
-        <v>-474824</v>
+        <v>985436</v>
       </c>
       <c r="K85" s="13">
-        <v>985436</v>
+        <v>0</v>
       </c>
       <c r="L85" s="13">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>22</v>
       </c>
@@ -3326,23 +3326,23 @@
       <c r="I86" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J86" s="11" t="s">
-        <v>20</v>
+      <c r="J86" s="11">
+        <v>-2028431</v>
       </c>
       <c r="K86" s="11">
-        <v>-2028431</v>
+        <v>-538062</v>
       </c>
       <c r="L86" s="11">
-        <v>-538062</v>
+        <v>-941104</v>
       </c>
       <c r="M86" s="11">
-        <v>-941104</v>
+        <v>-848452</v>
       </c>
       <c r="N86" s="11">
-        <v>-848452</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-359476</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>23</v>
       </c>
@@ -3365,8 +3365,8 @@
       <c r="I87" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J87" s="13" t="s">
-        <v>20</v>
+      <c r="J87" s="13">
+        <v>0</v>
       </c>
       <c r="K87" s="13">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>24</v>
       </c>
@@ -3404,8 +3404,8 @@
       <c r="I88" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J88" s="11" t="s">
-        <v>20</v>
+      <c r="J88" s="11">
+        <v>0</v>
       </c>
       <c r="K88" s="11">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>25</v>
       </c>
@@ -3443,8 +3443,8 @@
       <c r="I89" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J89" s="13" t="s">
-        <v>20</v>
+      <c r="J89" s="13">
+        <v>0</v>
       </c>
       <c r="K89" s="13">
         <v>0</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>26</v>
       </c>
@@ -3482,60 +3482,60 @@
       <c r="I90" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J90" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K90" s="11">
+      <c r="J90" s="11">
         <v>-5545350</v>
       </c>
+      <c r="K90" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="L90" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M90" s="11" t="s">
-        <v>20</v>
+      <c r="M90" s="11">
+        <v>-1226380</v>
       </c>
       <c r="N90" s="11">
-        <v>-1226380</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-624864</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15">
-        <v>-602159</v>
+        <v>-1102829</v>
       </c>
       <c r="F91" s="15">
-        <v>-1102829</v>
+        <v>-1056925</v>
       </c>
       <c r="G91" s="15">
-        <v>-1056925</v>
+        <v>-1392887</v>
       </c>
       <c r="H91" s="15">
-        <v>-1392887</v>
+        <v>-1438903</v>
       </c>
       <c r="I91" s="15">
-        <v>-1438903</v>
+        <v>-2657900</v>
       </c>
       <c r="J91" s="15">
-        <v>-2657900</v>
+        <v>-3490253</v>
       </c>
       <c r="K91" s="15">
-        <v>-3490253</v>
+        <v>-2463739</v>
       </c>
       <c r="L91" s="15">
-        <v>-2463739</v>
+        <v>488163</v>
       </c>
       <c r="M91" s="15">
-        <v>488163</v>
+        <v>-2488731</v>
       </c>
       <c r="N91" s="15">
-        <v>-2488731</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1286774</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>48</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>16</v>
       </c>
@@ -3561,37 +3561,37 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>-456791</v>
+        <v>-1199420</v>
       </c>
       <c r="F93" s="11">
-        <v>-1199420</v>
+        <v>-1588611</v>
       </c>
       <c r="G93" s="11">
-        <v>-1588611</v>
+        <v>-969376</v>
       </c>
       <c r="H93" s="11">
-        <v>-969376</v>
+        <v>-2249289</v>
       </c>
       <c r="I93" s="11">
-        <v>-2249289</v>
+        <v>-2945790</v>
       </c>
       <c r="J93" s="11">
-        <v>-2945790</v>
+        <v>-2420123</v>
       </c>
       <c r="K93" s="11">
-        <v>-2420123</v>
+        <v>-2334667</v>
       </c>
       <c r="L93" s="11">
-        <v>-2334667</v>
+        <v>-5388258</v>
       </c>
       <c r="M93" s="11">
-        <v>-5388258</v>
+        <v>-2972977</v>
       </c>
       <c r="N93" s="11">
-        <v>-2972977</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4112196</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>18</v>
       </c>
@@ -3600,37 +3600,37 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>-1543</v>
+        <v>-28209</v>
       </c>
       <c r="F94" s="13">
-        <v>-28209</v>
+        <v>-14733</v>
       </c>
       <c r="G94" s="13">
-        <v>-14733</v>
+        <v>-14421</v>
       </c>
       <c r="H94" s="13">
-        <v>-14421</v>
+        <v>-7995</v>
       </c>
       <c r="I94" s="13">
-        <v>-7995</v>
+        <v>-93276</v>
       </c>
       <c r="J94" s="13">
-        <v>-93276</v>
+        <v>-115987</v>
       </c>
       <c r="K94" s="13">
-        <v>-115987</v>
+        <v>-157983</v>
       </c>
       <c r="L94" s="13">
-        <v>-157983</v>
+        <v>-356555</v>
       </c>
       <c r="M94" s="13">
-        <v>-356555</v>
+        <v>-312701</v>
       </c>
       <c r="N94" s="13">
-        <v>-312701</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-88297</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>21</v>
       </c>
@@ -3639,74 +3639,74 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>-33906</v>
+        <v>-121053</v>
       </c>
       <c r="F95" s="11">
-        <v>-121053</v>
+        <v>-81561</v>
       </c>
       <c r="G95" s="11">
-        <v>-81561</v>
+        <v>-125604</v>
       </c>
       <c r="H95" s="11">
-        <v>-125604</v>
+        <v>-247277</v>
       </c>
       <c r="I95" s="11">
-        <v>-247277</v>
+        <v>-229484</v>
       </c>
       <c r="J95" s="11">
-        <v>-229484</v>
+        <v>-468360</v>
       </c>
       <c r="K95" s="11">
-        <v>-468360</v>
+        <v>-195003</v>
       </c>
       <c r="L95" s="11">
-        <v>-195003</v>
+        <v>-155551</v>
       </c>
       <c r="M95" s="11">
-        <v>-155551</v>
+        <v>-229632</v>
       </c>
       <c r="N95" s="11">
-        <v>-229632</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-90615</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
-        <v>-492240</v>
+        <v>-1348682</v>
       </c>
       <c r="F96" s="15">
-        <v>-1348682</v>
+        <v>-1684905</v>
       </c>
       <c r="G96" s="15">
-        <v>-1684905</v>
+        <v>-1109401</v>
       </c>
       <c r="H96" s="15">
-        <v>-1109401</v>
+        <v>-2504561</v>
       </c>
       <c r="I96" s="15">
-        <v>-2504561</v>
+        <v>-3268550</v>
       </c>
       <c r="J96" s="15">
-        <v>-3268550</v>
+        <v>-3004470</v>
       </c>
       <c r="K96" s="15">
-        <v>-3004470</v>
+        <v>-2687653</v>
       </c>
       <c r="L96" s="15">
-        <v>-2687653</v>
+        <v>-5900364</v>
       </c>
       <c r="M96" s="15">
-        <v>-5900364</v>
+        <v>-3515310</v>
       </c>
       <c r="N96" s="15">
-        <v>-3515310</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4291108</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="16" t="s">
         <v>50</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="M97" s="17"/>
       <c r="N97" s="17"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="18" t="s">
         <v>51</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="14" t="s">
         <v>32</v>
       </c>
@@ -3774,8 +3774,8 @@
       <c r="F99" s="15">
         <v>0</v>
       </c>
-      <c r="G99" s="15">
-        <v>0</v>
+      <c r="G99" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="H99" s="15" t="s">
         <v>20</v>
@@ -3799,7 +3799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="18" t="s">
         <v>34</v>
       </c>
@@ -3838,44 +3838,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15">
-        <v>-1094399</v>
+        <v>-2451511</v>
       </c>
       <c r="F101" s="15">
-        <v>-2451511</v>
+        <v>-2741830</v>
       </c>
       <c r="G101" s="15">
-        <v>-2741830</v>
+        <v>-2502288</v>
       </c>
       <c r="H101" s="15">
-        <v>-2502288</v>
+        <v>-3943464</v>
       </c>
       <c r="I101" s="15">
-        <v>-3943464</v>
+        <v>-5926450</v>
       </c>
       <c r="J101" s="15">
-        <v>-5926450</v>
+        <v>-6494723</v>
       </c>
       <c r="K101" s="15">
-        <v>-6494723</v>
+        <v>-5151392</v>
       </c>
       <c r="L101" s="15">
-        <v>-5151392</v>
+        <v>-5412201</v>
       </c>
       <c r="M101" s="15">
-        <v>-5412201</v>
+        <v>-6004041</v>
       </c>
       <c r="N101" s="15">
-        <v>-6004041</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5577882</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3890,7 +3890,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3905,7 +3905,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3920,7 +3920,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>52</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3972,7 +3972,7 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>53</v>
       </c>
@@ -3989,7 +3989,7 @@
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>16</v>
       </c>
@@ -3998,37 +3998,37 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>699112</v>
+        <v>1258725</v>
       </c>
       <c r="F108" s="11">
-        <v>1258725</v>
+        <v>980185</v>
       </c>
       <c r="G108" s="11">
-        <v>980185</v>
+        <v>1902572</v>
       </c>
       <c r="H108" s="11">
-        <v>1902572</v>
+        <v>1130591</v>
       </c>
       <c r="I108" s="11">
-        <v>1130591</v>
+        <v>3286181</v>
       </c>
       <c r="J108" s="11">
-        <v>3286181</v>
+        <v>-6319344</v>
       </c>
       <c r="K108" s="11">
-        <v>-6319344</v>
+        <v>4003935</v>
       </c>
       <c r="L108" s="11">
-        <v>4003935</v>
+        <v>-4003935</v>
       </c>
       <c r="M108" s="11">
-        <v>-4003935</v>
+        <v>0</v>
       </c>
       <c r="N108" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>18</v>
       </c>
@@ -4037,37 +4037,37 @@
       </c>
       <c r="D109" s="13"/>
       <c r="E109" s="13">
-        <v>28161</v>
+        <v>65101</v>
       </c>
       <c r="F109" s="13">
-        <v>65101</v>
+        <v>105</v>
       </c>
       <c r="G109" s="13">
-        <v>105</v>
+        <v>135588</v>
       </c>
       <c r="H109" s="13">
-        <v>135588</v>
+        <v>121343</v>
       </c>
       <c r="I109" s="13">
-        <v>121343</v>
+        <v>265918</v>
       </c>
       <c r="J109" s="13">
-        <v>265918</v>
+        <v>403489</v>
       </c>
       <c r="K109" s="13">
-        <v>403489</v>
+        <v>339359</v>
       </c>
       <c r="L109" s="13">
-        <v>339359</v>
+        <v>358464</v>
       </c>
       <c r="M109" s="13">
-        <v>358464</v>
+        <v>602458</v>
       </c>
       <c r="N109" s="13">
-        <v>602458</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>273559</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>19</v>
       </c>
@@ -4090,23 +4090,23 @@
       <c r="I110" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J110" s="11" t="s">
-        <v>20</v>
+      <c r="J110" s="11">
+        <v>855447</v>
       </c>
       <c r="K110" s="11">
-        <v>855447</v>
+        <v>205458</v>
       </c>
       <c r="L110" s="11">
-        <v>205458</v>
+        <v>357401</v>
       </c>
       <c r="M110" s="11">
-        <v>357401</v>
+        <v>561242</v>
       </c>
       <c r="N110" s="11">
-        <v>561242</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>304694</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>21</v>
       </c>
@@ -4115,25 +4115,25 @@
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13">
-        <v>512110</v>
+        <v>624950</v>
       </c>
       <c r="F111" s="13">
-        <v>624950</v>
+        <v>677409</v>
       </c>
       <c r="G111" s="13">
-        <v>677409</v>
+        <v>890142</v>
       </c>
       <c r="H111" s="13">
-        <v>890142</v>
+        <v>1095297</v>
       </c>
       <c r="I111" s="13">
-        <v>1095297</v>
+        <v>2413730</v>
       </c>
       <c r="J111" s="13">
-        <v>2413730</v>
+        <v>-4399169</v>
       </c>
       <c r="K111" s="13">
-        <v>-4399169</v>
+        <v>0</v>
       </c>
       <c r="L111" s="13">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>22</v>
       </c>
@@ -4168,23 +4168,23 @@
       <c r="I112" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J112" s="11" t="s">
-        <v>20</v>
+      <c r="J112" s="11">
+        <v>5333720</v>
       </c>
       <c r="K112" s="11">
-        <v>5333720</v>
+        <v>1523818</v>
       </c>
       <c r="L112" s="11">
-        <v>1523818</v>
+        <v>1112432</v>
       </c>
       <c r="M112" s="11">
-        <v>1112432</v>
+        <v>819380</v>
       </c>
       <c r="N112" s="11">
-        <v>819380</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>48522</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
         <v>23</v>
       </c>
@@ -4207,8 +4207,8 @@
       <c r="I113" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J113" s="13" t="s">
-        <v>20</v>
+      <c r="J113" s="13">
+        <v>0</v>
       </c>
       <c r="K113" s="13">
         <v>0</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>24</v>
       </c>
@@ -4246,8 +4246,8 @@
       <c r="I114" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J114" s="11" t="s">
-        <v>20</v>
+      <c r="J114" s="11">
+        <v>0</v>
       </c>
       <c r="K114" s="11">
         <v>0</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
         <v>25</v>
       </c>
@@ -4285,8 +4285,8 @@
       <c r="I115" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J115" s="13" t="s">
-        <v>20</v>
+      <c r="J115" s="13">
+        <v>0</v>
       </c>
       <c r="K115" s="13">
         <v>0</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>26</v>
       </c>
@@ -4324,60 +4324,60 @@
       <c r="I116" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J116" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K116" s="11">
+      <c r="J116" s="11">
         <v>6802702</v>
       </c>
+      <c r="K116" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="L116" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M116" s="11" t="s">
-        <v>20</v>
+      <c r="M116" s="11">
+        <v>2566579</v>
       </c>
       <c r="N116" s="11">
-        <v>2566579</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-629137</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15">
-        <v>1239383</v>
+        <v>1948776</v>
       </c>
       <c r="F117" s="15">
-        <v>1948776</v>
+        <v>1657699</v>
       </c>
       <c r="G117" s="15">
-        <v>1657699</v>
+        <v>2928302</v>
       </c>
       <c r="H117" s="15">
-        <v>2928302</v>
+        <v>2347231</v>
       </c>
       <c r="I117" s="15">
-        <v>2347231</v>
+        <v>5965829</v>
       </c>
       <c r="J117" s="15">
-        <v>5965829</v>
+        <v>2676845</v>
       </c>
       <c r="K117" s="15">
-        <v>2676845</v>
+        <v>6072570</v>
       </c>
       <c r="L117" s="15">
-        <v>6072570</v>
+        <v>-2175638</v>
       </c>
       <c r="M117" s="15">
-        <v>-2175638</v>
+        <v>4549659</v>
       </c>
       <c r="N117" s="15">
-        <v>4549659</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2362</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>55</v>
       </c>
@@ -4394,7 +4394,7 @@
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>16</v>
       </c>
@@ -4403,37 +4403,37 @@
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
-        <v>1268502</v>
+        <v>3405426</v>
       </c>
       <c r="F119" s="11">
-        <v>3405426</v>
+        <v>2258643</v>
       </c>
       <c r="G119" s="11">
-        <v>2258643</v>
+        <v>2328870</v>
       </c>
       <c r="H119" s="11">
-        <v>2328870</v>
+        <v>4680702</v>
       </c>
       <c r="I119" s="11">
-        <v>4680702</v>
+        <v>7187988</v>
       </c>
       <c r="J119" s="11">
-        <v>7187988</v>
+        <v>2457792</v>
       </c>
       <c r="K119" s="11">
-        <v>2457792</v>
+        <v>7317241</v>
       </c>
       <c r="L119" s="11">
-        <v>7317241</v>
+        <v>14092439</v>
       </c>
       <c r="M119" s="11">
-        <v>14092439</v>
+        <v>8213918</v>
       </c>
       <c r="N119" s="11">
-        <v>8213918</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7610336</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>18</v>
       </c>
@@ -4442,37 +4442,37 @@
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13">
-        <v>1817</v>
+        <v>23350</v>
       </c>
       <c r="F120" s="13">
-        <v>23350</v>
+        <v>1751</v>
       </c>
       <c r="G120" s="13">
-        <v>1751</v>
+        <v>15162</v>
       </c>
       <c r="H120" s="13">
-        <v>15162</v>
+        <v>873</v>
       </c>
       <c r="I120" s="13">
-        <v>873</v>
+        <v>123163</v>
       </c>
       <c r="J120" s="13">
-        <v>123163</v>
+        <v>130715</v>
       </c>
       <c r="K120" s="13">
-        <v>130715</v>
+        <v>370288</v>
       </c>
       <c r="L120" s="13">
-        <v>370288</v>
+        <v>911049</v>
       </c>
       <c r="M120" s="13">
-        <v>911049</v>
+        <v>869852</v>
       </c>
       <c r="N120" s="13">
-        <v>869852</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>135774</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>21</v>
       </c>
@@ -4481,74 +4481,74 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>76383</v>
+        <v>318717</v>
       </c>
       <c r="F121" s="11">
-        <v>318717</v>
+        <v>150853</v>
       </c>
       <c r="G121" s="11">
-        <v>150853</v>
+        <v>621532</v>
       </c>
       <c r="H121" s="11">
-        <v>621532</v>
+        <v>1287070</v>
       </c>
       <c r="I121" s="11">
-        <v>1287070</v>
+        <v>1046314</v>
       </c>
       <c r="J121" s="11">
-        <v>1046314</v>
+        <v>68429</v>
       </c>
       <c r="K121" s="11">
-        <v>68429</v>
+        <v>621833</v>
       </c>
       <c r="L121" s="11">
-        <v>621833</v>
+        <v>108016</v>
       </c>
       <c r="M121" s="11">
-        <v>108016</v>
+        <v>216023</v>
       </c>
       <c r="N121" s="11">
-        <v>216023</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-9088</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
       <c r="E122" s="15">
-        <v>1346702</v>
+        <v>3747493</v>
       </c>
       <c r="F122" s="15">
-        <v>3747493</v>
+        <v>2411247</v>
       </c>
       <c r="G122" s="15">
-        <v>2411247</v>
+        <v>2965564</v>
       </c>
       <c r="H122" s="15">
-        <v>2965564</v>
+        <v>5968645</v>
       </c>
       <c r="I122" s="15">
-        <v>5968645</v>
+        <v>8357465</v>
       </c>
       <c r="J122" s="15">
-        <v>8357465</v>
+        <v>2656936</v>
       </c>
       <c r="K122" s="15">
-        <v>2656936</v>
+        <v>8309362</v>
       </c>
       <c r="L122" s="15">
-        <v>8309362</v>
+        <v>15111504</v>
       </c>
       <c r="M122" s="15">
-        <v>15111504</v>
+        <v>9299793</v>
       </c>
       <c r="N122" s="15">
-        <v>9299793</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7737022</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="16" t="s">
         <v>57</v>
       </c>
@@ -4565,7 +4565,7 @@
       <c r="M123" s="17"/>
       <c r="N123" s="17"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="18" t="s">
         <v>58</v>
       </c>
@@ -4602,41 +4602,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
       <c r="E125" s="15">
-        <v>2586085</v>
+        <v>5696269</v>
       </c>
       <c r="F125" s="15">
-        <v>5696269</v>
+        <v>4068946</v>
       </c>
       <c r="G125" s="15">
-        <v>4068946</v>
+        <v>5893866</v>
       </c>
       <c r="H125" s="15">
-        <v>5893866</v>
+        <v>8315876</v>
       </c>
       <c r="I125" s="15">
-        <v>8315876</v>
+        <v>14323294</v>
       </c>
       <c r="J125" s="15">
-        <v>14323294</v>
+        <v>5333781</v>
       </c>
       <c r="K125" s="15">
-        <v>5333781</v>
+        <v>14381932</v>
       </c>
       <c r="L125" s="15">
-        <v>14381932</v>
+        <v>12935866</v>
       </c>
       <c r="M125" s="15">
-        <v>12935866</v>
+        <v>13849452</v>
       </c>
       <c r="N125" s="15">
-        <v>13849452</v>
+        <v>7734660</v>
       </c>
     </row>
   </sheetData>
